--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/02.TraBH/TBH_GpsTayNinh_100525.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/02.TraBH/TBH_GpsTayNinh_100525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang5\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AED4BE-9AFD-4D3E-AFA6-FD52FBBFAE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F72BD8-448C-4E07-B97B-D7661D7A097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -151,13 +151,16 @@
     <t>Nâng cấp FW</t>
   </si>
   <si>
-    <t>Thiết bị lỗi tụ nguồn</t>
-  </si>
-  <si>
     <t>Thiết bị lỗi GPS</t>
   </si>
   <si>
-    <t>Thiết bị ở FW module SIM cũ</t>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Thiết bị mất tín hiệu</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW module SIM</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,6 +805,78 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,81 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1317,77 +1317,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="36" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="39" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="39" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="42" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
@@ -1396,58 +1396,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
       <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="L10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1483,153 +1483,153 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+      <c r="A12" s="36">
         <v>1</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="70" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="70" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="76"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
+      <c r="A13" s="36">
         <v>2</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="70" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="70" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
+        <v>3</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
-        <v>3</v>
-      </c>
-      <c r="B14" s="72" t="s">
+      <c r="I14" s="43"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
+        <v>4</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="70" t="s">
+      <c r="C15" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="70" t="s">
+      <c r="F15" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="76"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
-        <v>4</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="76"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+      <c r="A16" s="36">
         <v>5</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="70" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="76"/>
+      <c r="H16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="43"/>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
+      <c r="A17" s="36">
         <v>6</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="70" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="77"/>
+      <c r="H17" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="44"/>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1639,8 +1639,8 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="32"/>
       <c r="J18" s="12"/>
     </row>
@@ -1648,26 +1648,26 @@
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1712,19 +1712,19 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
@@ -1738,29 +1738,29 @@
       <c r="I26" s="31"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
     </row>
     <row r="67" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
